--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-immunization.xlsx
@@ -609,7 +609,7 @@
     <t>全てのターミノロジがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_Immunization_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_Immunization_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1729,7 +1729,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.72265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.4765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
